--- a/bi_generic_import/static/Sample XLS-CSV File/Sample XLS File/import_picking.xlsx
+++ b/bi_generic_import/static/Sample XLS-CSV File/Sample XLS File/import_picking.xlsx
@@ -201,10 +201,10 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="H1:M5"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.15"/>
